--- a/public/cohort/fileExcel/xlsxUIT/BIO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/BIO PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -257,28 +257,16 @@
     <t>Hoofdstuk 3: Cellen, Hoofdstuk 7: Onderzoek doen</t>
   </si>
   <si>
-    <t>B1, B2, C2 D3</t>
-  </si>
-  <si>
     <t>Hoofdstuk 5 Voeding en energie Hoofdstuk 6 Voeding en vertering</t>
   </si>
   <si>
     <t>Opdracht: keuzeonderwerp</t>
   </si>
   <si>
-    <t>A10, A11, A12, A13 t/m A16</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hoofdstuk 1: Gedrag, Hoofdstuk 4: Voortplanting en seksualiteit </t>
   </si>
   <si>
-    <t>D2 E2, E3</t>
-  </si>
-  <si>
     <t>Hoofdstuk 2: Soorten en relaties, Hoofdstuk 6: par 6.1, Hoofdstuk 8: Ecosysteem en evenwicht</t>
-  </si>
-  <si>
-    <t>B3, C2, C3, F3</t>
   </si>
   <si>
     <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
@@ -287,19 +275,10 @@
     <t>Nectar HAVO 5: Hoofdstuk 9: Erfelijkheid &amp; Hoofdstuk 10 Evolutie</t>
   </si>
   <si>
-    <t>C2, D1, E1, E4, F1, F2, F3</t>
-  </si>
-  <si>
     <t>Nectar HAVO 5: Hoofdstuk 11: Gezondheid &amp; Hoofdstuk 12: Transport</t>
   </si>
   <si>
-    <t>B2, B3, B4, B5</t>
-  </si>
-  <si>
     <t>Nectar HAVO 5: Hoofdstuk 13: Gaswisseling en uitscheiding &amp; Hoofdstuk 14: Reageren</t>
-  </si>
-  <si>
-    <t>B2, B3, B4, B5, B6, B7</t>
   </si>
   <si>
     <t>A</t>
@@ -312,6 +291,9 @@
   </si>
   <si>
     <t>Hoofdstuk 7: Erfelijkheid en Hoofdstuk 8: Evolutie</t>
+  </si>
+  <si>
+    <t>PO: Ecologische opdracht</t>
   </si>
   <si>
     <t>Hoofdstuk 1: Gedrag en Hoofdstuk 5: Onderzoek</t>
@@ -332,31 +314,16 @@
     <t>Nectar Atheneum 5: Hoofdstuk 13 Hormonen, Hoofdstuk 14 Zenuwstelsel. Nectar Atheneum 4: Hoofdstuk 6 Voortplanting</t>
   </si>
   <si>
-    <t>B2, B3, B4 D2, D4, E3</t>
-  </si>
-  <si>
     <t>Nectar Atheneum 5: Hoofdstuk 15 Waarnemen, Hoofdstuk 16 Sport</t>
-  </si>
-  <si>
-    <t>B2, B4, B6, B7</t>
   </si>
   <si>
     <t>Nectar Atheneum 6: Hoofdstuk 17 Stedelijke ecosystemen, Hoofdstuk 18 Wereldwijde kringlopen. Nectar Atheneum 4: Hoofdstuk 2 Soorten en populaties, Hoofdstuk 3 Ecosystemen</t>
   </si>
   <si>
-    <t>B8, C2, C3, D5</t>
-  </si>
-  <si>
     <t>Nectar Atheneum 6: Hoofdstuk 19 DNA, Hoofdstuk 20 Eiwit. Nectar Atheneum 4: Hoofdstuk 4 Cel en leven, Hoofdstuk 5: Onderzoek</t>
   </si>
   <si>
-    <t xml:space="preserve">B1, B2, B3, B4, C1, D1, E1, E2 </t>
-  </si>
-  <si>
     <t>Nectar Atheneum 6: Hoofdstuk 21 Planten, Hoofdstuk 22 Terug naar de toekomst. Nectar Atheneum 5: Hoofdstuk 16 Sport par 3. Nectar Atheneum 4: Hoofdstuk 1 Gedrag, Hoofdstuk 7 Erfelijkheid, Hoofdstuk 8 Evolutie par 2,3,4 en 5</t>
-  </si>
-  <si>
-    <t>B3, C2, D3, F1, F2, F3, F4</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1340,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1381,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I6" s="27">
         <v>2</v>
@@ -1400,9 +1367,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1417,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I7" s="27">
         <v>2</v>
@@ -1436,9 +1401,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1453,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I8" s="27">
         <v>2</v>
@@ -1472,9 +1435,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1490,18 +1451,16 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I9" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
+      <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
         <v>8</v>
       </c>
@@ -1509,9 +1468,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1519,25 +1476,25 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I10" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="27">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M10" s="27" t="s">
         <v>8</v>
@@ -1546,9 +1503,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -1560,22 +1515,28 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="27">
+        <v>2</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>50</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -1620,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -2279,7 +2240,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2393,7 +2354,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2548,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I18" s="27">
         <v>3</v>
@@ -2569,9 +2530,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>88</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2580,7 +2539,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I19" s="27">
         <v>3</v>
@@ -2601,9 +2560,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>88</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2612,7 +2569,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I20" s="27">
         <v>3</v>
@@ -2633,9 +2590,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>101</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2644,7 +2599,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I21" s="27">
         <v>3</v>
@@ -2665,9 +2620,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>103</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -2731,7 +2684,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -3185,7 +3138,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3299,7 +3252,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3659,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3678,9 +3631,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>105</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3689,7 +3640,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3708,9 +3659,7 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>107</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
@@ -3719,7 +3668,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3738,9 +3687,7 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32" t="s">
-        <v>109</v>
-      </c>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3826,7 +3773,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4179,7 +4126,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633356481</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5134,7 +5081,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5950,7 +5897,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6766,7 +6713,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7507,9 +7454,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7524,7 +7469,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="27">
         <v>3</v>
@@ -7545,9 +7490,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7562,7 +7505,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="27">
         <v>2</v>
@@ -7581,9 +7524,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>79</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7599,7 +7540,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I9" s="27">
         <v>3</v>
@@ -7620,9 +7561,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32" t="s">
-        <v>81</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -7630,7 +7569,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7638,7 +7577,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I10" s="27">
         <v>3</v>
@@ -7659,9 +7598,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>83</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -7733,7 +7670,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -8506,7 +8443,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8661,7 +8598,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
@@ -8680,9 +8617,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>86</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -8691,7 +8626,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
@@ -8710,9 +8645,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>88</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -8721,7 +8654,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
@@ -8740,9 +8673,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>90</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -8828,7 +8759,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -9386,7 +9317,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633368056</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/BIO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/BIO PTA en onderwijsprogramma.xlsx
@@ -1342,7 +1342,9 @@
       <c r="B6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>270</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1376,7 +1378,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>271</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>1</v>
@@ -1410,7 +1414,9 @@
       <c r="B8" s="2">
         <v>76</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>272</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -1445,7 +1451,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>273</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -1476,9 +1484,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445729167</v>
+      </c>
+      <c r="D10" s="2">
+        <v>274</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>3</v>
@@ -1513,7 +1523,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>275</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -1560,7 +1572,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>187</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1774,7 +1788,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>188</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1979,7 +1995,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>189</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2354,7 +2372,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2426,7 +2444,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>190</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2503,7 +2523,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>276</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2533,7 +2555,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>277</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -2563,7 +2587,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>278</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -2593,7 +2619,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>279</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>4</v>
@@ -2670,7 +2698,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>191</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2877,7 +2907,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>192</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3252,7 +3284,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3324,7 +3356,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>193</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3536,7 +3570,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>194</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3606,7 +3642,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>280</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3634,7 +3672,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>281</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3662,7 +3702,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>282</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>3</v>
@@ -3759,7 +3801,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>195</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -4126,7 +4170,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5081,7 +5125,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5897,7 +5941,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6713,7 +6757,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7427,7 +7471,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>262</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7463,7 +7509,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>263</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -7499,7 +7547,9 @@
       <c r="B8" s="2">
         <v>74</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>264</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -7534,7 +7584,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>265</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -7569,9 +7621,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445729167</v>
+      </c>
+      <c r="D10" s="2">
+        <v>266</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -7649,7 +7703,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>183</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7863,7 +7919,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>184</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8443,7 +8501,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8515,7 +8573,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>185</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8592,7 +8652,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>267</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -8620,7 +8682,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>268</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -8648,7 +8712,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>269</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -8745,7 +8811,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>186</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -9317,7 +9385,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/BIO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/BIO PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,36 +252,87 @@
     <t>BIO</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Thema 1: Stofwisseling (deel 4A), Thema 2: Planten (deel 4A)</t>
+  </si>
+  <si>
+    <t>BI/K/4, BI/K/6, BI/K/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thema 3: Ecologie (deel 4A), Thema 4: Mens en milieu (deel 4A), Thema 2: Ordening (deel 3A) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI/K/4, BI/K/5, BI/K/6, BI/K/7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thema 5: Voeding en vertering (deel 4B), Thema 4: Erfelijkheid (deel 3A), Thema 8: Stevigheid en beweging (deel 3B), Thema 9: Gedrag (deel 3B) </t>
+  </si>
+  <si>
+    <t>BI/V/2, BI/K/8, BI/K/9, BI/K/12,  BI/K/13</t>
+  </si>
+  <si>
+    <t>Thema 6: Gaswisseling (deel 4B), Thema 7: Transport (deel 4B), Thema 8: Opslag, uitscheiding en bescherming (deel 4B), Thema 6: Regeling (deel 3B), Thema 7: Zintuiglijke waarneming (deel 3B)</t>
+  </si>
+  <si>
+    <t>BI/K/9, BI/K/10, BI/K/11</t>
+  </si>
+  <si>
+    <t>Opdracht: keuzeonderwerp</t>
+  </si>
+  <si>
+    <t>BI/K/1, BI/K/2, BI/K/3, BI/V/3</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>Hoofdstuk 3: Cellen, Hoofdstuk 7: Onderzoek doen</t>
   </si>
   <si>
+    <t>B1, B2, C2 D3</t>
+  </si>
+  <si>
     <t>Hoofdstuk 5 Voeding en energie Hoofdstuk 6 Voeding en vertering</t>
   </si>
   <si>
-    <t>Opdracht: keuzeonderwerp</t>
+    <t>A10, A11, A12, A13 t/m A16</t>
   </si>
   <si>
     <t xml:space="preserve">Hoofdstuk 1: Gedrag, Hoofdstuk 4: Voortplanting en seksualiteit </t>
   </si>
   <si>
+    <t>D2 E2, E3</t>
+  </si>
+  <si>
     <t>Hoofdstuk 2: Soorten en relaties, Hoofdstuk 6: par 6.1, Hoofdstuk 8: Ecosysteem en evenwicht</t>
   </si>
   <si>
+    <t>B3, C2, C3, F3</t>
+  </si>
+  <si>
     <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
   </si>
   <si>
     <t>Nectar HAVO 5: Hoofdstuk 9: Erfelijkheid &amp; Hoofdstuk 10 Evolutie</t>
   </si>
   <si>
+    <t>C2, D1, E1, E4, F1, F2, F3</t>
+  </si>
+  <si>
     <t>Nectar HAVO 5: Hoofdstuk 11: Gezondheid &amp; Hoofdstuk 12: Transport</t>
   </si>
   <si>
+    <t>B2, B3, B4, B5</t>
+  </si>
+  <si>
     <t>Nectar HAVO 5: Hoofdstuk 13: Gaswisseling en uitscheiding &amp; Hoofdstuk 14: Reageren</t>
   </si>
   <si>
+    <t>B2, B3, B4, B5, B6, B7</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -314,16 +366,31 @@
     <t>Nectar Atheneum 5: Hoofdstuk 13 Hormonen, Hoofdstuk 14 Zenuwstelsel. Nectar Atheneum 4: Hoofdstuk 6 Voortplanting</t>
   </si>
   <si>
+    <t>B2, B3, B4 D2, D4, E3</t>
+  </si>
+  <si>
     <t>Nectar Atheneum 5: Hoofdstuk 15 Waarnemen, Hoofdstuk 16 Sport</t>
   </si>
   <si>
+    <t>B2, B4, B6, B7</t>
+  </si>
+  <si>
     <t>Nectar Atheneum 6: Hoofdstuk 17 Stedelijke ecosystemen, Hoofdstuk 18 Wereldwijde kringlopen. Nectar Atheneum 4: Hoofdstuk 2 Soorten en populaties, Hoofdstuk 3 Ecosystemen</t>
   </si>
   <si>
+    <t>B8, C2, C3, D5</t>
+  </si>
+  <si>
     <t>Nectar Atheneum 6: Hoofdstuk 19 DNA, Hoofdstuk 20 Eiwit. Nectar Atheneum 4: Hoofdstuk 4 Cel en leven, Hoofdstuk 5: Onderzoek</t>
   </si>
   <si>
+    <t xml:space="preserve">B1, B2, B3, B4, C1, D1, E1, E2 </t>
+  </si>
+  <si>
     <t>Nectar Atheneum 6: Hoofdstuk 21 Planten, Hoofdstuk 22 Terug naar de toekomst. Nectar Atheneum 5: Hoofdstuk 16 Sport par 3. Nectar Atheneum 4: Hoofdstuk 1 Gedrag, Hoofdstuk 7 Erfelijkheid, Hoofdstuk 8 Evolutie par 2,3,4 en 5</t>
+  </si>
+  <si>
+    <t>B3, C2, D3, F1, F2, F3, F4</t>
   </si>
 </sst>
 </file>
@@ -1252,12 +1319,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1279,25 +1346,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>BIO leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>19</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1339,35 +1402,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="2">
-        <v>270</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>50</v>
-      </c>
+      <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1375,35 +1428,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>271</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>50</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1411,35 +1454,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>76</v>
-      </c>
-      <c r="D8" s="2">
-        <v>272</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>50</v>
-      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1449,32 +1482,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>273</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1484,34 +1511,26 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2">
-        <v>274</v>
-      </c>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>3</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="27">
-        <v>3</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>100</v>
-      </c>
+      <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -1523,32 +1542,24 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>275</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="27">
-        <v>2</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>50</v>
-      </c>
+      <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -1567,17 +1578,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>187</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1592,11 +1601,9 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>91</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1611,7 +1618,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>BIO leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1788,12 +1795,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>188</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1818,7 +1823,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>BIO leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -1995,12 +2000,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>189</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2074,44 +2077,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2175,7 +2140,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2206,7 +2171,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>BIO leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>BIO leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2258,22 +2223,30 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="D6" s="2">
+        <v>270</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
@@ -2286,22 +2259,30 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>271</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
@@ -2314,22 +2295,30 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>77</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="D8" s="2">
+        <v>272</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>50</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
@@ -2343,22 +2332,28 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>273</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
@@ -2372,22 +2367,30 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2">
+        <v>274</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>3</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="27">
+        <v>3</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
@@ -2403,20 +2406,28 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>275</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="27">
+        <v>2</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>50</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
@@ -2439,17 +2450,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2464,9 +2475,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>108</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -2481,7 +2494,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>BIO leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>BIO leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2523,130 +2536,90 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>276</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="27">
-        <v>3</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>277</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="27">
-        <v>3</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>278</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="27">
-        <v>3</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>279</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>4</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="27">
-        <v>3</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>100</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
@@ -2699,11 +2672,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2713,9 +2686,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>80</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2730,7 +2701,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>BIO leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>BIO leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2908,11 +2879,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -3045,6 +3016,926 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>BIO leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>77</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>190</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>BIO leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>276</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="27">
+        <v>3</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>3</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>277</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="27">
+        <v>3</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>3</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>278</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="27">
+        <v>3</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>3</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>279</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>4</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="27">
+        <v>3</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27">
+        <v>100</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>3</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>191</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>BIO leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>192</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3170,7 +4061,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3284,7 +4175,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3650,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3667,9 +4558,11 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3680,7 +4573,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3697,9 +4590,11 @@
         <v>3</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2">
@@ -3710,7 +4605,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3727,9 +4622,11 @@
         <v>3</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3817,7 +4714,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4170,7 +5067,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5125,7 +6022,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5941,7 +6838,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6565,12 +7462,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6592,6 +7489,921 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>BIO leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>181</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>BIO leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>257</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>50</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>1</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>258</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>1</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>3</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>259</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>2</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>3</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>260</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27">
+        <v>100</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>3</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>261</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>3</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27">
+        <v>100</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>2</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>182</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>BIO leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6757,7 +8569,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7337,924 +9149,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>BIO leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>262</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>3</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>100</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31">
-        <v>2</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>263</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>3</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>50</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31">
-        <v>1</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>74</v>
-      </c>
-      <c r="D8" s="2">
-        <v>264</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31">
-        <v>1</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>265</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="27">
-        <v>3</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31">
-        <v>2</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2">
-        <v>266</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="27">
-        <v>3</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>100</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31">
-        <v>2</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>183</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>BIO leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>184</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>BIO leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8304,7 +9198,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8335,7 +9229,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>BIO leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>BIO leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8387,52 +9281,74 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="D6" s="2">
+        <v>262</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="27">
+        <v>3</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>100</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="31">
+        <v>2</v>
+      </c>
       <c r="O6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>263</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="27">
+        <v>3</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
+        <v>11</v>
+      </c>
+      <c r="N7" s="31">
+        <v>1</v>
+      </c>
       <c r="O7" s="31" t="s">
         <v>5</v>
       </c>
@@ -8443,28 +9359,38 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>75</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="D8" s="2">
+        <v>264</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="31">
+        <v>1</v>
+      </c>
       <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -8472,28 +9398,40 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>265</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="27">
+        <v>3</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="31">
+        <v>2</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -8501,28 +9439,40 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2">
+        <v>266</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="27">
+        <v>3</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="31">
+        <v>2</v>
+      </c>
       <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -8568,17 +9518,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8593,9 +9543,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>94</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -8610,7 +9562,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>BIO leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>BIO leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8652,92 +9604,68 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>267</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>81</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>268</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>82</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>269</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
@@ -8812,11 +9740,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8826,9 +9754,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>80</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -8843,7 +9769,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>BIO leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>BIO leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9023,7 +9949,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9193,12 +10119,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9220,21 +10146,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>BIO leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>19</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9276,7 +10206,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9302,7 +10234,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9328,7 +10262,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>75</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9356,7 +10292,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9385,7 +10321,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9452,15 +10388,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>185</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9475,7 +10413,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9492,7 +10430,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>BIO leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9534,70 +10472,100 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>267</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>95</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>268</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>269</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>99</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -9669,10 +10637,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>186</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9682,7 +10652,9 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
+      <c r="G26" s="34" t="s">
+        <v>94</v>
+      </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9697,7 +10669,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>BIO leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9877,7 +10849,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  BIO leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9951,6 +10923,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/BIO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/BIO PTA en onderwijsprogramma.xlsx
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809143519</v>
+        <v>44341.376527778</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2340,7 +2340,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809143519</v>
+        <v>44341.376527778</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3452,7 +3452,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809143519</v>
+        <v>44341.376527778</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4609,7 +4609,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809143519</v>
+        <v>44341.376527778</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5734,7 +5734,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809143519</v>
+        <v>44341.376527778</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6809,7 +6809,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809143519</v>
+        <v>44341.376527778</v>
       </c>
       <c r="D10" s="2">
         <v>266</v>
@@ -7945,7 +7945,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809143519</v>
+        <v>44341.376527778</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9055,7 +9055,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -9459,7 +9459,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809143519</v>
+        <v>44341.376527778</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10135,7 +10135,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809143519</v>
+        <v>44341.376527778</v>
       </c>
       <c r="D10" s="2">
         <v>274</v>
@@ -11263,7 +11263,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/BIO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/BIO PTA en onderwijsprogramma.xlsx
@@ -2302,7 +2302,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382581019</v>
+        <v>44342.629791667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2833,75 +2833,105 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>926</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K30" s="26"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="23">
+        <v>100</v>
+      </c>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>3</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>110</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>927</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" s="26"/>
-      <c r="L31" s="23"/>
+      <c r="L31" s="23">
+        <v>100</v>
+      </c>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>3</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>112</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>928</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="23">
+        <v>3</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>113</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K32" s="26"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="23">
+        <v>100</v>
+      </c>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>3</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>114</v>
+      </c>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
@@ -3432,7 +3462,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382581019</v>
+        <v>44342.629791667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4706,7 +4736,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382581019</v>
+        <v>44342.629791667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4917,123 +4947,173 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>913</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>50</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>1</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>914</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>3</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>915</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>2</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>3</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>916</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="23">
+        <v>100</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>3</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>917</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
+      <c r="G22" s="23">
+        <v>3</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="I22" s="23"/>
       <c r="J22" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+      <c r="L22" s="23">
+        <v>100</v>
+      </c>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>2</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
@@ -5781,7 +5861,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382581019</v>
+        <v>44342.629791667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6786,27 +6866,39 @@
       <c r="B6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>921</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="23">
+        <v>3</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>100</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="27">
+        <v>2</v>
+      </c>
       <c r="O6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
@@ -6816,23 +6908,33 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>922</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="23">
+        <v>3</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>50</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="27"/>
+        <v>11</v>
+      </c>
+      <c r="N7" s="27">
+        <v>1</v>
+      </c>
       <c r="O7" s="27" t="s">
         <v>5</v>
       </c>
@@ -6846,27 +6948,37 @@
       <c r="B8" s="2">
         <v>236</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>923</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="27">
+        <v>1</v>
+      </c>
       <c r="O8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
@@ -6877,27 +6989,39 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>924</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="23">
+        <v>3</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="27">
+        <v>2</v>
+      </c>
       <c r="O9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
@@ -6906,29 +7030,41 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382581019</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629791667</v>
+      </c>
+      <c r="D10" s="2">
+        <v>925</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="23">
+        <v>3</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>100</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="27">
+        <v>2</v>
+      </c>
       <c r="O10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
@@ -8028,7 +8164,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382581019</v>
+        <v>44342.629791667</v>
       </c>
       <c r="D10" s="2">
         <v>266</v>
@@ -8253,75 +8389,105 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>918</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>2</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>919</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>920</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>93</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>2</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>94</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
@@ -9120,7 +9286,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382581019</v>
+        <v>44342.629791667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10110,21 +10276,29 @@
       <c r="B6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>933</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>50</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
@@ -10140,21 +10314,29 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>934</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>50</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27" t="s">
@@ -10170,21 +10352,29 @@
       <c r="B8" s="2">
         <v>237</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>935</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>50</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
@@ -10201,21 +10391,27 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>936</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27" t="s">
@@ -10230,23 +10426,31 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382581019</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629791667</v>
+      </c>
+      <c r="D10" s="2">
+        <v>937</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>3</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="23">
+        <v>3</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>100</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27" t="s">
@@ -10263,21 +10467,29 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>938</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23">
+        <v>50</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="27"/>
       <c r="O11" s="27" t="s">
@@ -11340,7 +11552,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382581019</v>
+        <v>44342.629791667</v>
       </c>
       <c r="D10" s="2">
         <v>274</v>
@@ -11569,99 +11781,147 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>929</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="23">
+        <v>3</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>3</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>930</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="23">
+        <v>3</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>3</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>931</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="23">
+        <v>3</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>3</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>106</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>932</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>4</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="23">
+        <v>3</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="23">
+        <v>100</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>3</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>108</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">

--- a/public/cohort/fileExcel/xlsxUIT/BIO PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/BIO PTA en onderwijsprogramma.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -915,6 +915,9 @@
   </si>
   <si>
     <t>Thema 1: Stofwisseling (deel 4A), Thema 2: Planten (deel 4A)</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>BI/K/4, BI/K/6, BI/K/9</t>
@@ -2247,7 +2250,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2601,7 +2604,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541064815</v>
+        <v>44378.451296296</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2973,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I18" s="45">
         <v>3</v>
@@ -2992,10 +2995,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -3067,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I19" s="45">
         <v>3</v>
@@ -3086,10 +3089,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -3161,7 +3164,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I20" s="45">
         <v>3</v>
@@ -3180,10 +3183,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -3255,7 +3258,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -3274,10 +3277,10 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -3554,7 +3557,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -3678,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -3695,10 +3698,10 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -3770,7 +3773,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -3787,10 +3790,10 @@
         <v>3</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -3862,7 +3865,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -3879,10 +3882,10 @@
         <v>3</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -4565,7 +4568,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4919,7 +4922,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541064815</v>
+        <v>44378.451296296</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5946,7 +5949,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -5963,10 +5966,10 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -6038,7 +6041,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -6055,10 +6058,10 @@
         <v>3</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -6130,7 +6133,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -6147,10 +6150,10 @@
         <v>3</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -6479,7 +6482,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -7364,7 +7367,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541064815</v>
+        <v>44378.451284722</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7753,10 +7756,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7828,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7845,10 +7848,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7920,7 +7923,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -7937,10 +7940,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -8012,7 +8015,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -8029,10 +8032,10 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -8104,7 +8107,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
@@ -8121,10 +8124,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -9650,7 +9653,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541064815</v>
+        <v>44378.451284722</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10039,10 +10042,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -10114,7 +10117,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -10131,10 +10134,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -10206,7 +10209,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -10223,10 +10226,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -10298,7 +10301,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -10315,10 +10318,10 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -10390,7 +10393,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
@@ -10407,10 +10410,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -11582,7 +11585,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2">
         <v>921</v>
@@ -11592,7 +11595,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I6" s="45">
         <v>3</v>
@@ -11611,10 +11614,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -11692,7 +11695,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -11709,7 +11712,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11788,7 +11791,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -11805,10 +11808,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11887,7 +11890,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -11906,10 +11909,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -11978,7 +11981,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541064815</v>
+        <v>44378.451284722</v>
       </c>
       <c r="D10" s="2">
         <v>925</v>
@@ -11988,7 +11991,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -12007,10 +12010,10 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -13872,7 +13875,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2">
         <v>262</v>
@@ -13882,7 +13885,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I6" s="45">
         <v>3</v>
@@ -13901,10 +13904,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -13982,7 +13985,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -13999,7 +14002,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -14078,7 +14081,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -14095,10 +14098,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -14177,7 +14180,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -14196,10 +14199,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -14268,7 +14271,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541064815</v>
+        <v>44378.451284722</v>
       </c>
       <c r="D10" s="2">
         <v>266</v>
@@ -14278,7 +14281,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -14297,10 +14300,10 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -14523,7 +14526,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -14654,7 +14657,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -14671,10 +14674,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14746,7 +14749,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -14763,10 +14766,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14838,7 +14841,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -14855,10 +14858,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -16194,7 +16197,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16548,7 +16551,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541064815</v>
+        <v>44378.451296296</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16920,7 +16923,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -16937,10 +16940,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -17012,7 +17015,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -17029,10 +17032,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -17104,7 +17107,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -17121,10 +17124,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -17483,7 +17486,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -18462,7 +18465,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2">
         <v>933</v>
@@ -18472,7 +18475,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -18489,7 +18492,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -18568,7 +18571,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -18585,7 +18588,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18664,7 +18667,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -18681,7 +18684,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -18761,7 +18764,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -18776,7 +18779,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -18846,7 +18849,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541064815</v>
+        <v>44378.451296296</v>
       </c>
       <c r="D10" s="2">
         <v>937</v>
@@ -18856,7 +18859,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -18873,7 +18876,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -18953,7 +18956,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -18970,7 +18973,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -20746,7 +20749,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2">
         <v>270</v>
@@ -20756,7 +20759,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -20773,7 +20776,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -20852,7 +20855,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -20869,7 +20872,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -20948,7 +20951,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -20965,7 +20968,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -21045,7 +21048,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -21060,7 +21063,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -21130,7 +21133,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541064815</v>
+        <v>44378.451296296</v>
       </c>
       <c r="D10" s="2">
         <v>274</v>
@@ -21140,7 +21143,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -21157,7 +21160,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -21237,7 +21240,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -21254,7 +21257,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -21389,7 +21392,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -21520,7 +21523,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I18" s="45">
         <v>3</v>
@@ -21539,10 +21542,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -21614,7 +21617,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I19" s="45">
         <v>3</v>
@@ -21633,10 +21636,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -21708,7 +21711,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I20" s="45">
         <v>3</v>
@@ -21727,10 +21730,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -21802,7 +21805,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -21821,10 +21824,10 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
